--- a/sorensenLab/relatedToDlg2/design20210511_ewsfli1DegronConstructs/primersOligosDesignWorkbookEwsFli1.xlsx
+++ b/sorensenLab/relatedToDlg2/design20210511_ewsfli1DegronConstructs/primersOligosDesignWorkbookEwsFli1.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$27</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -744,7 +747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1284,6 +1287,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="45" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/sorensenLab/relatedToDlg2/design20210511_ewsfli1DegronConstructs/primersOligosDesignWorkbookEwsFli1.xlsx
+++ b/sorensenLab/relatedToDlg2/design20210511_ewsfli1DegronConstructs/primersOligosDesignWorkbookEwsFli1.xlsx
@@ -748,7 +748,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/sorensenLab/relatedToDlg2/design20210511_ewsfli1DegronConstructs/primersOligosDesignWorkbookEwsFli1.xlsx
+++ b/sorensenLab/relatedToDlg2/design20210511_ewsfli1DegronConstructs/primersOligosDesignWorkbookEwsFli1.xlsx
@@ -748,7 +748,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
